--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.283888</v>
+        <v>0.3986426666666667</v>
       </c>
       <c r="H2">
-        <v>0.8516640000000001</v>
+        <v>1.195928</v>
       </c>
       <c r="I2">
-        <v>0.0007936627692614525</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="J2">
-        <v>0.0007936627692614524</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.719753333333333</v>
+        <v>2.175751666666667</v>
       </c>
       <c r="N2">
-        <v>8.15926</v>
+        <v>6.527255</v>
       </c>
       <c r="O2">
-        <v>0.1068554218872926</v>
+        <v>0.1287951194969566</v>
       </c>
       <c r="P2">
-        <v>0.1068554218872926</v>
+        <v>0.1287951194969566</v>
       </c>
       <c r="Q2">
-        <v>0.7721053342933334</v>
+        <v>0.8673474464044445</v>
       </c>
       <c r="R2">
-        <v>6.94894800864</v>
+        <v>7.806127017640001</v>
       </c>
       <c r="S2">
-        <v>8.48071700456695E-05</v>
+        <v>0.0001056098286910757</v>
       </c>
       <c r="T2">
-        <v>8.480717004566948E-05</v>
+        <v>0.0001056098286910757</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.283888</v>
+        <v>0.3986426666666667</v>
       </c>
       <c r="H3">
-        <v>0.8516640000000001</v>
+        <v>1.195928</v>
       </c>
       <c r="I3">
-        <v>0.0007936627692614525</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="J3">
-        <v>0.0007936627692614524</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>17.570788</v>
       </c>
       <c r="O3">
-        <v>0.2301108145385953</v>
+        <v>0.3467049686454247</v>
       </c>
       <c r="P3">
-        <v>0.2301108145385953</v>
+        <v>0.3467049686454247</v>
       </c>
       <c r="Q3">
-        <v>1.662711954581334</v>
+        <v>2.334821927918223</v>
       </c>
       <c r="R3">
-        <v>14.964407591232</v>
+        <v>21.013397351264</v>
       </c>
       <c r="S3">
-        <v>0.00018263038630371</v>
+        <v>0.0002842922347368396</v>
       </c>
       <c r="T3">
-        <v>0.00018263038630371</v>
+        <v>0.0002842922347368395</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.283888</v>
+        <v>0.3986426666666667</v>
       </c>
       <c r="H4">
-        <v>0.8516640000000001</v>
+        <v>1.195928</v>
       </c>
       <c r="I4">
-        <v>0.0007936627692614525</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="J4">
-        <v>0.0007936627692614524</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.639461666666667</v>
+        <v>5.405749</v>
       </c>
       <c r="N4">
-        <v>19.918385</v>
+        <v>16.217247</v>
       </c>
       <c r="O4">
-        <v>0.2608554492059968</v>
+        <v>0.3199970378477111</v>
       </c>
       <c r="P4">
-        <v>0.2608554492059968</v>
+        <v>0.3199970378477111</v>
       </c>
       <c r="Q4">
-        <v>1.884863493626667</v>
+        <v>2.154962196690667</v>
       </c>
       <c r="R4">
-        <v>16.96377144264</v>
+        <v>19.394659770216</v>
       </c>
       <c r="S4">
-        <v>0.0002070312581937716</v>
+        <v>0.0002623921813244407</v>
       </c>
       <c r="T4">
-        <v>0.0002070312581937716</v>
+        <v>0.0002623921813244407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.283888</v>
+        <v>0.3986426666666667</v>
       </c>
       <c r="H5">
-        <v>0.8516640000000001</v>
+        <v>1.195928</v>
       </c>
       <c r="I5">
-        <v>0.0007936627692614525</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="J5">
-        <v>0.0007936627692614524</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.705333666666667</v>
+        <v>1.577118333333333</v>
       </c>
       <c r="N5">
-        <v>5.116001000000001</v>
+        <v>4.731355</v>
       </c>
       <c r="O5">
-        <v>0.06700024821255986</v>
+        <v>0.0933586067355302</v>
       </c>
       <c r="P5">
-        <v>0.06700024821255986</v>
+        <v>0.09335860673553019</v>
       </c>
       <c r="Q5">
-        <v>0.4841237639626668</v>
+        <v>0.6287066580488889</v>
       </c>
       <c r="R5">
-        <v>4.357113875664001</v>
+        <v>5.65835992244</v>
       </c>
       <c r="S5">
-        <v>5.317560253758494E-05</v>
+        <v>7.655248508395408E-05</v>
       </c>
       <c r="T5">
-        <v>5.317560253758493E-05</v>
+        <v>7.655248508395407E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.283888</v>
+        <v>0.3986426666666667</v>
       </c>
       <c r="H6">
-        <v>0.8516640000000001</v>
+        <v>1.195928</v>
       </c>
       <c r="I6">
-        <v>0.0007936627692614525</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="J6">
-        <v>0.0007936627692614524</v>
+        <v>0.0008199831569982065</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.531169</v>
+        <v>1.877573666666666</v>
       </c>
       <c r="N6">
-        <v>25.593507</v>
+        <v>5.632720999999999</v>
       </c>
       <c r="O6">
-        <v>0.3351780661555555</v>
+        <v>0.1111442672743775</v>
       </c>
       <c r="P6">
-        <v>0.3351780661555555</v>
+        <v>0.1111442672743775</v>
       </c>
       <c r="Q6">
-        <v>2.421896505072</v>
+        <v>0.7484809733431111</v>
       </c>
       <c r="R6">
-        <v>21.797068545648</v>
+        <v>6.736328760088</v>
       </c>
       <c r="S6">
-        <v>0.0002660183521807165</v>
+        <v>9.113642716189652E-05</v>
       </c>
       <c r="T6">
-        <v>0.0002660183521807165</v>
+        <v>9.113642716189649E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.73316</v>
       </c>
       <c r="I7">
-        <v>0.0006832292968961075</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="J7">
-        <v>0.0006832292968961073</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.719753333333333</v>
+        <v>2.175751666666667</v>
       </c>
       <c r="N7">
-        <v>8.15926</v>
+        <v>6.527255</v>
       </c>
       <c r="O7">
-        <v>0.1068554218872926</v>
+        <v>0.1287951194969566</v>
       </c>
       <c r="P7">
-        <v>0.1068554218872926</v>
+        <v>0.1287951194969566</v>
       </c>
       <c r="Q7">
-        <v>0.6646714512888888</v>
+        <v>0.5317246973111112</v>
       </c>
       <c r="R7">
-        <v>5.9820430616</v>
+        <v>4.7855222758</v>
       </c>
       <c r="S7">
-        <v>7.300675476559188E-05</v>
+        <v>6.474378223701518E-05</v>
       </c>
       <c r="T7">
-        <v>7.300675476559186E-05</v>
+        <v>6.474378223701517E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.73316</v>
       </c>
       <c r="I8">
-        <v>0.0006832292968961075</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="J8">
-        <v>0.0006832292968961073</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>17.570788</v>
       </c>
       <c r="O8">
-        <v>0.2301108145385953</v>
+        <v>0.3467049686454247</v>
       </c>
       <c r="P8">
-        <v>0.2301108145385953</v>
+        <v>0.3467049686454247</v>
       </c>
       <c r="Q8">
         <v>1.431355436675556</v>
@@ -948,10 +948,10 @@
         <v>12.88219893008</v>
       </c>
       <c r="S8">
-        <v>0.000157218450025395</v>
+        <v>0.0001742844843666686</v>
       </c>
       <c r="T8">
-        <v>0.000157218450025395</v>
+        <v>0.0001742844843666686</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.73316</v>
       </c>
       <c r="I9">
-        <v>0.0006832292968961075</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="J9">
-        <v>0.0006832292968961073</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.639461666666667</v>
+        <v>5.405749</v>
       </c>
       <c r="N9">
-        <v>19.918385</v>
+        <v>16.217247</v>
       </c>
       <c r="O9">
-        <v>0.2608554492059968</v>
+        <v>0.3199970378477111</v>
       </c>
       <c r="P9">
-        <v>0.2608554492059968</v>
+        <v>0.3199970378477111</v>
       </c>
       <c r="Q9">
-        <v>1.622595905177778</v>
+        <v>1.321092978946667</v>
       </c>
       <c r="R9">
-        <v>14.6033631466</v>
+        <v>11.88983681052</v>
       </c>
       <c r="S9">
-        <v>0.0001782240851525314</v>
+        <v>0.0001608587236521153</v>
       </c>
       <c r="T9">
-        <v>0.0001782240851525314</v>
+        <v>0.0001608587236521153</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.73316</v>
       </c>
       <c r="I10">
-        <v>0.0006832292968961075</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="J10">
-        <v>0.0006832292968961073</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.705333666666667</v>
+        <v>1.577118333333333</v>
       </c>
       <c r="N10">
-        <v>5.116001000000001</v>
+        <v>4.731355</v>
       </c>
       <c r="O10">
-        <v>0.06700024821255986</v>
+        <v>0.0933586067355302</v>
       </c>
       <c r="P10">
-        <v>0.06700024821255986</v>
+        <v>0.09335860673553019</v>
       </c>
       <c r="Q10">
-        <v>0.4167608103511112</v>
+        <v>0.3854266924222222</v>
       </c>
       <c r="R10">
-        <v>3.750847293160001</v>
+        <v>3.4688402318</v>
       </c>
       <c r="S10">
-        <v>4.577653247813195E-05</v>
+        <v>4.69302666750438E-05</v>
       </c>
       <c r="T10">
-        <v>4.577653247813194E-05</v>
+        <v>4.693026667504379E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.73316</v>
       </c>
       <c r="I11">
-        <v>0.0006832292968961075</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="J11">
-        <v>0.0006832292968961073</v>
+        <v>0.0005026881646594152</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.531169</v>
+        <v>1.877573666666666</v>
       </c>
       <c r="N11">
-        <v>25.593507</v>
+        <v>5.632720999999999</v>
       </c>
       <c r="O11">
-        <v>0.3351780661555555</v>
+        <v>0.1111442672743775</v>
       </c>
       <c r="P11">
-        <v>0.3351780661555555</v>
+        <v>0.1111442672743775</v>
       </c>
       <c r="Q11">
-        <v>2.08490395468</v>
+        <v>0.4588539698177777</v>
       </c>
       <c r="R11">
-        <v>18.76413559212</v>
+        <v>4.129685728359999</v>
       </c>
       <c r="S11">
-        <v>0.0002290034744744571</v>
+        <v>5.587090772857233E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002290034744744571</v>
+        <v>5.587090772857232E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.42549866666667</v>
+        <v>365.9520313333333</v>
       </c>
       <c r="H12">
-        <v>259.276496</v>
+        <v>1097.856094</v>
       </c>
       <c r="I12">
-        <v>0.2416188800040461</v>
+        <v>0.7527405545215428</v>
       </c>
       <c r="J12">
-        <v>0.241618880004046</v>
+        <v>0.7527405545215429</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.719753333333333</v>
+        <v>2.175751666666667</v>
       </c>
       <c r="N12">
-        <v>8.15926</v>
+        <v>6.527255</v>
       </c>
       <c r="O12">
-        <v>0.1068554218872926</v>
+        <v>0.1287951194969566</v>
       </c>
       <c r="P12">
-        <v>0.1068554218872926</v>
+        <v>0.1287951194969566</v>
       </c>
       <c r="Q12">
-        <v>235.0560380836622</v>
+        <v>796.2207420935522</v>
       </c>
       <c r="R12">
-        <v>2115.50434275296</v>
+        <v>7165.98667884197</v>
       </c>
       <c r="S12">
-        <v>0.02581828735876748</v>
+        <v>0.0969493096698075</v>
       </c>
       <c r="T12">
-        <v>0.02581828735876748</v>
+        <v>0.09694930966980748</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.42549866666667</v>
+        <v>365.9520313333333</v>
       </c>
       <c r="H13">
-        <v>259.276496</v>
+        <v>1097.856094</v>
       </c>
       <c r="I13">
-        <v>0.2416188800040461</v>
+        <v>0.7527405545215428</v>
       </c>
       <c r="J13">
-        <v>0.241618880004046</v>
+        <v>0.7527405545215429</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>17.570788</v>
       </c>
       <c r="O13">
-        <v>0.2301108145385953</v>
+        <v>0.3467049686454247</v>
       </c>
       <c r="P13">
-        <v>0.2301108145385953</v>
+        <v>0.3467049686454247</v>
       </c>
       <c r="Q13">
-        <v>506.1880382887609</v>
+        <v>2143.355186909119</v>
       </c>
       <c r="R13">
-        <v>4555.692344598849</v>
+        <v>19290.19668218207</v>
       </c>
       <c r="S13">
-        <v>0.05559911728563415</v>
+        <v>0.2609788903535311</v>
       </c>
       <c r="T13">
-        <v>0.05559911728563414</v>
+        <v>0.2609788903535311</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>86.42549866666667</v>
+        <v>365.9520313333333</v>
       </c>
       <c r="H14">
-        <v>259.276496</v>
+        <v>1097.856094</v>
       </c>
       <c r="I14">
-        <v>0.2416188800040461</v>
+        <v>0.7527405545215428</v>
       </c>
       <c r="J14">
-        <v>0.241618880004046</v>
+        <v>0.7527405545215429</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.639461666666667</v>
+        <v>5.405749</v>
       </c>
       <c r="N14">
-        <v>19.918385</v>
+        <v>16.217247</v>
       </c>
       <c r="O14">
-        <v>0.2608554492059968</v>
+        <v>0.3199970378477111</v>
       </c>
       <c r="P14">
-        <v>0.2608554492059968</v>
+        <v>0.3199970378477111</v>
       </c>
       <c r="Q14">
-        <v>573.8187854198844</v>
+        <v>1978.244827428135</v>
       </c>
       <c r="R14">
-        <v>5164.36906877896</v>
+        <v>17804.20344685322</v>
       </c>
       <c r="S14">
-        <v>0.06302760148010528</v>
+        <v>0.2408747477147372</v>
       </c>
       <c r="T14">
-        <v>0.06302760148010526</v>
+        <v>0.2408747477147372</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>86.42549866666667</v>
+        <v>365.9520313333333</v>
       </c>
       <c r="H15">
-        <v>259.276496</v>
+        <v>1097.856094</v>
       </c>
       <c r="I15">
-        <v>0.2416188800040461</v>
+        <v>0.7527405545215428</v>
       </c>
       <c r="J15">
-        <v>0.241618880004046</v>
+        <v>0.7527405545215429</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.705333666666667</v>
+        <v>1.577118333333333</v>
       </c>
       <c r="N15">
-        <v>5.116001000000001</v>
+        <v>4.731355</v>
       </c>
       <c r="O15">
-        <v>0.06700024821255986</v>
+        <v>0.0933586067355302</v>
       </c>
       <c r="P15">
-        <v>0.06700024821255986</v>
+        <v>0.09335860673553019</v>
       </c>
       <c r="Q15">
-        <v>147.3843125347218</v>
+        <v>577.1496577363744</v>
       </c>
       <c r="R15">
-        <v>1326.458812812496</v>
+        <v>5194.34691962737</v>
       </c>
       <c r="S15">
-        <v>0.0161885249331118</v>
+        <v>0.07027480940346165</v>
       </c>
       <c r="T15">
-        <v>0.0161885249331118</v>
+        <v>0.07027480940346165</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>86.42549866666667</v>
+        <v>365.9520313333333</v>
       </c>
       <c r="H16">
-        <v>259.276496</v>
+        <v>1097.856094</v>
       </c>
       <c r="I16">
-        <v>0.2416188800040461</v>
+        <v>0.7527405545215428</v>
       </c>
       <c r="J16">
-        <v>0.241618880004046</v>
+        <v>0.7527405545215429</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.531169</v>
+        <v>1.877573666666666</v>
       </c>
       <c r="N16">
-        <v>25.593507</v>
+        <v>5.632720999999999</v>
       </c>
       <c r="O16">
-        <v>0.3351780661555555</v>
+        <v>0.1111442672743775</v>
       </c>
       <c r="P16">
-        <v>0.3351780661555555</v>
+        <v>0.1111442672743775</v>
       </c>
       <c r="Q16">
-        <v>737.3105350346081</v>
+        <v>687.1018972946414</v>
       </c>
       <c r="R16">
-        <v>6635.794815311473</v>
+        <v>6183.917075651773</v>
       </c>
       <c r="S16">
-        <v>0.08098534894642737</v>
+        <v>0.08366279738000548</v>
       </c>
       <c r="T16">
-        <v>0.08098534894642738</v>
+        <v>0.08366279738000548</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06768933333333334</v>
+        <v>0.08320699999999999</v>
       </c>
       <c r="H17">
-        <v>0.203068</v>
+        <v>0.249621</v>
       </c>
       <c r="I17">
-        <v>0.000189238374791449</v>
+        <v>0.000171151620860996</v>
       </c>
       <c r="J17">
-        <v>0.000189238374791449</v>
+        <v>0.0001711516208609961</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.719753333333333</v>
+        <v>2.175751666666667</v>
       </c>
       <c r="N17">
-        <v>8.15926</v>
+        <v>6.527255</v>
       </c>
       <c r="O17">
-        <v>0.1068554218872926</v>
+        <v>0.1287951194969566</v>
       </c>
       <c r="P17">
-        <v>0.1068554218872926</v>
+        <v>0.1287951194969566</v>
       </c>
       <c r="Q17">
-        <v>0.1840982899644444</v>
+        <v>0.1810377689283333</v>
       </c>
       <c r="R17">
-        <v>1.65688460968</v>
+        <v>1.629339920355</v>
       </c>
       <c r="S17">
-        <v>2.022114637560589E-05</v>
+        <v>2.20434934608898E-05</v>
       </c>
       <c r="T17">
-        <v>2.022114637560589E-05</v>
+        <v>2.20434934608898E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.06768933333333334</v>
+        <v>0.08320699999999999</v>
       </c>
       <c r="H18">
-        <v>0.203068</v>
+        <v>0.249621</v>
       </c>
       <c r="I18">
-        <v>0.000189238374791449</v>
+        <v>0.000171151620860996</v>
       </c>
       <c r="J18">
-        <v>0.000189238374791449</v>
+        <v>0.0001711516208609961</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>17.570788</v>
       </c>
       <c r="O18">
-        <v>0.2301108145385953</v>
+        <v>0.3467049686454247</v>
       </c>
       <c r="P18">
-        <v>0.2301108145385953</v>
+        <v>0.3467049686454247</v>
       </c>
       <c r="Q18">
-        <v>0.3964516419537778</v>
+        <v>0.4873375190386666</v>
       </c>
       <c r="R18">
-        <v>3.568064777584</v>
+        <v>4.386037671347999</v>
       </c>
       <c r="S18">
-        <v>4.35457965652203E-05</v>
+        <v>5.933911734422525E-05</v>
       </c>
       <c r="T18">
-        <v>4.35457965652203E-05</v>
+        <v>5.933911734422525E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.06768933333333334</v>
+        <v>0.08320699999999999</v>
       </c>
       <c r="H19">
-        <v>0.203068</v>
+        <v>0.249621</v>
       </c>
       <c r="I19">
-        <v>0.000189238374791449</v>
+        <v>0.000171151620860996</v>
       </c>
       <c r="J19">
-        <v>0.000189238374791449</v>
+        <v>0.0001711516208609961</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.639461666666667</v>
+        <v>5.405749</v>
       </c>
       <c r="N19">
-        <v>19.918385</v>
+        <v>16.217247</v>
       </c>
       <c r="O19">
-        <v>0.2608554492059968</v>
+        <v>0.3199970378477111</v>
       </c>
       <c r="P19">
-        <v>0.2608554492059968</v>
+        <v>0.3199970378477111</v>
       </c>
       <c r="Q19">
-        <v>0.4494207339088889</v>
+        <v>0.449796157043</v>
       </c>
       <c r="R19">
-        <v>4.044786605180001</v>
+        <v>4.048165413387</v>
       </c>
       <c r="S19">
-        <v>4.936386126323621E-05</v>
+        <v>5.476801169835325E-05</v>
       </c>
       <c r="T19">
-        <v>4.936386126323621E-05</v>
+        <v>5.476801169835325E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.06768933333333334</v>
+        <v>0.08320699999999999</v>
       </c>
       <c r="H20">
-        <v>0.203068</v>
+        <v>0.249621</v>
       </c>
       <c r="I20">
-        <v>0.000189238374791449</v>
+        <v>0.000171151620860996</v>
       </c>
       <c r="J20">
-        <v>0.000189238374791449</v>
+        <v>0.0001711516208609961</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.705333666666667</v>
+        <v>1.577118333333333</v>
       </c>
       <c r="N20">
-        <v>5.116001000000001</v>
+        <v>4.731355</v>
       </c>
       <c r="O20">
-        <v>0.06700024821255986</v>
+        <v>0.0933586067355302</v>
       </c>
       <c r="P20">
-        <v>0.06700024821255986</v>
+        <v>0.09335860673553019</v>
       </c>
       <c r="Q20">
-        <v>0.1154328990075556</v>
+        <v>0.1312272851616666</v>
       </c>
       <c r="R20">
-        <v>1.038896091068</v>
+        <v>1.181045566455</v>
       </c>
       <c r="S20">
-        <v>1.267901808236851E-05</v>
+        <v>1.597847686411029E-05</v>
       </c>
       <c r="T20">
-        <v>1.267901808236851E-05</v>
+        <v>1.597847686411029E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.06768933333333334</v>
+        <v>0.08320699999999999</v>
       </c>
       <c r="H21">
-        <v>0.203068</v>
+        <v>0.249621</v>
       </c>
       <c r="I21">
-        <v>0.000189238374791449</v>
+        <v>0.000171151620860996</v>
       </c>
       <c r="J21">
-        <v>0.000189238374791449</v>
+        <v>0.0001711516208609961</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.531169</v>
+        <v>1.877573666666666</v>
       </c>
       <c r="N21">
-        <v>25.593507</v>
+        <v>5.632720999999999</v>
       </c>
       <c r="O21">
-        <v>0.3351780661555555</v>
+        <v>0.1111442672743775</v>
       </c>
       <c r="P21">
-        <v>0.3351780661555555</v>
+        <v>0.1111442672743775</v>
       </c>
       <c r="Q21">
-        <v>0.577469142164</v>
+        <v>0.1562272720823333</v>
       </c>
       <c r="R21">
-        <v>5.197222279476001</v>
+        <v>1.406045448741</v>
       </c>
       <c r="S21">
-        <v>6.34285525050181E-05</v>
+        <v>1.902252149341747E-05</v>
       </c>
       <c r="T21">
-        <v>6.34285525050181E-05</v>
+        <v>1.902252149341746E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>270.67202</v>
+        <v>119.4813116666667</v>
       </c>
       <c r="H22">
-        <v>812.01606</v>
+        <v>358.443935</v>
       </c>
       <c r="I22">
-        <v>0.7567149895550049</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="J22">
-        <v>0.7567149895550048</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.719753333333333</v>
+        <v>2.175751666666667</v>
       </c>
       <c r="N22">
-        <v>8.15926</v>
+        <v>6.527255</v>
       </c>
       <c r="O22">
-        <v>0.1068554218872926</v>
+        <v>0.1287951194969566</v>
       </c>
       <c r="P22">
-        <v>0.1068554218872926</v>
+        <v>0.1287951194969566</v>
       </c>
       <c r="Q22">
-        <v>736.1611286350667</v>
+        <v>259.9616629942695</v>
       </c>
       <c r="R22">
-        <v>6625.4501577156</v>
+        <v>2339.654966948425</v>
       </c>
       <c r="S22">
-        <v>0.0808590994573383</v>
+        <v>0.03165341272276014</v>
       </c>
       <c r="T22">
-        <v>0.08085909945733828</v>
+        <v>0.03165341272276014</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>270.67202</v>
+        <v>119.4813116666667</v>
       </c>
       <c r="H23">
-        <v>812.01606</v>
+        <v>358.443935</v>
       </c>
       <c r="I23">
-        <v>0.7567149895550049</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="J23">
-        <v>0.7567149895550048</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>17.570788</v>
       </c>
       <c r="O23">
-        <v>0.2301108145385953</v>
+        <v>0.3467049686454247</v>
       </c>
       <c r="P23">
-        <v>0.2301108145385953</v>
+        <v>0.3467049686454247</v>
       </c>
       <c r="Q23">
-        <v>1585.306893650587</v>
+        <v>699.7935990856422</v>
       </c>
       <c r="R23">
-        <v>14267.76204285528</v>
+        <v>6298.142391770781</v>
       </c>
       <c r="S23">
-        <v>0.1741283026200668</v>
+        <v>0.08520816245544585</v>
       </c>
       <c r="T23">
-        <v>0.1741283026200668</v>
+        <v>0.08520816245544584</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>270.67202</v>
+        <v>119.4813116666667</v>
       </c>
       <c r="H24">
-        <v>812.01606</v>
+        <v>358.443935</v>
       </c>
       <c r="I24">
-        <v>0.7567149895550049</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="J24">
-        <v>0.7567149895550048</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.639461666666667</v>
+        <v>5.405749</v>
       </c>
       <c r="N24">
-        <v>19.918385</v>
+        <v>16.217247</v>
       </c>
       <c r="O24">
-        <v>0.2608554492059968</v>
+        <v>0.3199970378477111</v>
       </c>
       <c r="P24">
-        <v>0.2608554492059968</v>
+        <v>0.3199970378477111</v>
       </c>
       <c r="Q24">
-        <v>1797.116501029234</v>
+        <v>645.8859810607717</v>
       </c>
       <c r="R24">
-        <v>16174.0485092631</v>
+        <v>5812.973829546945</v>
       </c>
       <c r="S24">
-        <v>0.197393228521282</v>
+        <v>0.07864427121629901</v>
       </c>
       <c r="T24">
-        <v>0.197393228521282</v>
+        <v>0.07864427121629899</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>270.67202</v>
+        <v>119.4813116666667</v>
       </c>
       <c r="H25">
-        <v>812.01606</v>
+        <v>358.443935</v>
       </c>
       <c r="I25">
-        <v>0.7567149895550049</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="J25">
-        <v>0.7567149895550048</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.705333666666667</v>
+        <v>1.577118333333333</v>
       </c>
       <c r="N25">
-        <v>5.116001000000001</v>
+        <v>4.731355</v>
       </c>
       <c r="O25">
-        <v>0.06700024821255986</v>
+        <v>0.0933586067355302</v>
       </c>
       <c r="P25">
-        <v>0.06700024821255986</v>
+        <v>0.09335860673553019</v>
       </c>
       <c r="Q25">
-        <v>461.5861083306735</v>
+        <v>188.4361671202139</v>
       </c>
       <c r="R25">
-        <v>4154.274974976061</v>
+        <v>1695.925504081925</v>
       </c>
       <c r="S25">
-        <v>0.05070009212634997</v>
+        <v>0.02294433610344545</v>
       </c>
       <c r="T25">
-        <v>0.05070009212634996</v>
+        <v>0.02294433610344544</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>270.67202</v>
+        <v>119.4813116666667</v>
       </c>
       <c r="H26">
-        <v>812.01606</v>
+        <v>358.443935</v>
       </c>
       <c r="I26">
-        <v>0.7567149895550049</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="J26">
-        <v>0.7567149895550048</v>
+        <v>0.2457656225359385</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.531169</v>
+        <v>1.877573666666666</v>
       </c>
       <c r="N26">
-        <v>25.593507</v>
+        <v>5.632720999999999</v>
       </c>
       <c r="O26">
-        <v>0.3351780661555555</v>
+        <v>0.1111442672743775</v>
       </c>
       <c r="P26">
-        <v>0.3351780661555555</v>
+        <v>0.1111442672743775</v>
       </c>
       <c r="Q26">
-        <v>2309.14874619138</v>
+        <v>224.3349644441261</v>
       </c>
       <c r="R26">
-        <v>20782.33871572242</v>
+        <v>2019.014679997135</v>
       </c>
       <c r="S26">
-        <v>0.2536342668299679</v>
+        <v>0.02731544003798813</v>
       </c>
       <c r="T26">
-        <v>0.2536342668299679</v>
+        <v>0.02731544003798812</v>
       </c>
     </row>
   </sheetData>
